--- a/data/pca/factorExposure/factorExposure_2014-12-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0122646719884655</v>
+        <v>0.01151707756064806</v>
       </c>
       <c r="C2">
-        <v>0.03432398116183405</v>
+        <v>-0.05303268332870476</v>
       </c>
       <c r="D2">
-        <v>0.1361710269450669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06372085989483836</v>
+      </c>
+      <c r="E2">
+        <v>0.1032235667274774</v>
+      </c>
+      <c r="F2">
+        <v>-0.1467642646072369</v>
+      </c>
+      <c r="G2">
+        <v>-0.0529393188029416</v>
+      </c>
+      <c r="H2">
+        <v>0.04987718631528898</v>
+      </c>
+      <c r="I2">
+        <v>-0.04015784458245813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04331758742694371</v>
+        <v>0.0215423820379227</v>
       </c>
       <c r="C4">
-        <v>0.1188694601476944</v>
+        <v>-0.1424878797372614</v>
       </c>
       <c r="D4">
-        <v>0.1002503388382992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02812204189563296</v>
+      </c>
+      <c r="E4">
+        <v>0.07870389113701741</v>
+      </c>
+      <c r="F4">
+        <v>-0.105336999925812</v>
+      </c>
+      <c r="G4">
+        <v>0.05960116443123793</v>
+      </c>
+      <c r="H4">
+        <v>-0.02433713841875706</v>
+      </c>
+      <c r="I4">
+        <v>-0.07633080003260381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02111477729255316</v>
+        <v>0.03026736769264037</v>
       </c>
       <c r="C6">
-        <v>0.04664470940166802</v>
+        <v>-0.05793832357702605</v>
       </c>
       <c r="D6">
-        <v>0.08401950812290299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03769729109183759</v>
+      </c>
+      <c r="E6">
+        <v>0.08827814389315705</v>
+      </c>
+      <c r="F6">
+        <v>-0.05174993514332329</v>
+      </c>
+      <c r="G6">
+        <v>-0.04176602725557774</v>
+      </c>
+      <c r="H6">
+        <v>-0.04448137548069594</v>
+      </c>
+      <c r="I6">
+        <v>-0.02228094395361494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.007848315927980029</v>
+        <v>0.006814737742239328</v>
       </c>
       <c r="C7">
-        <v>0.03656645509009467</v>
+        <v>-0.05421265462332536</v>
       </c>
       <c r="D7">
-        <v>0.06490343805603971</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03391143729048458</v>
+      </c>
+      <c r="E7">
+        <v>0.0725840458634871</v>
+      </c>
+      <c r="F7">
+        <v>-0.005456252914399994</v>
+      </c>
+      <c r="G7">
+        <v>0.0197175727768484</v>
+      </c>
+      <c r="H7">
+        <v>-0.04829894284425094</v>
+      </c>
+      <c r="I7">
+        <v>-0.07806640065887972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.003650238365894532</v>
+        <v>-0.006802035195769827</v>
       </c>
       <c r="C8">
-        <v>0.05108757255114604</v>
+        <v>-0.05925078092202567</v>
       </c>
       <c r="D8">
-        <v>0.08280437218420122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.01442753002916744</v>
+      </c>
+      <c r="E8">
+        <v>0.06793428034166653</v>
+      </c>
+      <c r="F8">
+        <v>-0.08149113504787484</v>
+      </c>
+      <c r="G8">
+        <v>0.03020895933528208</v>
+      </c>
+      <c r="H8">
+        <v>0.04798253236367278</v>
+      </c>
+      <c r="I8">
+        <v>-0.02863216010208796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02524613922144378</v>
+        <v>0.01241848316418644</v>
       </c>
       <c r="C9">
-        <v>0.09668083288642604</v>
+        <v>-0.1134138459349247</v>
       </c>
       <c r="D9">
-        <v>0.08630815174685798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.02704576614832707</v>
+      </c>
+      <c r="E9">
+        <v>0.06669082287609913</v>
+      </c>
+      <c r="F9">
+        <v>-0.06776495540671235</v>
+      </c>
+      <c r="G9">
+        <v>0.008852864769816263</v>
+      </c>
+      <c r="H9">
+        <v>-0.04214434628468206</v>
+      </c>
+      <c r="I9">
+        <v>-0.07992174375058435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.2227688409795862</v>
+        <v>0.2421172064434409</v>
       </c>
       <c r="C10">
-        <v>-0.1131746439080996</v>
+        <v>0.0858020507524659</v>
       </c>
       <c r="D10">
-        <v>-0.04547350636609118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01670470066196497</v>
+      </c>
+      <c r="E10">
+        <v>-0.02473926442775297</v>
+      </c>
+      <c r="F10">
+        <v>-0.01661108901445341</v>
+      </c>
+      <c r="G10">
+        <v>0.005949314479043641</v>
+      </c>
+      <c r="H10">
+        <v>-0.02734426844815438</v>
+      </c>
+      <c r="I10">
+        <v>-0.02606248055204805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.00952447732335184</v>
+        <v>0.01238363332576511</v>
       </c>
       <c r="C11">
-        <v>0.04201221775749233</v>
+        <v>-0.06601928976320354</v>
       </c>
       <c r="D11">
-        <v>0.04693650270130275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.01451254304041167</v>
+      </c>
+      <c r="E11">
+        <v>0.05435880445715831</v>
+      </c>
+      <c r="F11">
+        <v>-0.003058622104814404</v>
+      </c>
+      <c r="G11">
+        <v>0.01447910101197379</v>
+      </c>
+      <c r="H11">
+        <v>-0.03349931882642768</v>
+      </c>
+      <c r="I11">
+        <v>-0.0381361202470694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01335065280912647</v>
+        <v>0.01458094551515845</v>
       </c>
       <c r="C12">
-        <v>0.04499166408797416</v>
+        <v>-0.05607856400617616</v>
       </c>
       <c r="D12">
-        <v>0.05002618756506914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02117341673081641</v>
+      </c>
+      <c r="E12">
+        <v>0.04220450202271506</v>
+      </c>
+      <c r="F12">
+        <v>0.006942512520330092</v>
+      </c>
+      <c r="G12">
+        <v>-0.01384307134948122</v>
+      </c>
+      <c r="H12">
+        <v>-0.03034828362858966</v>
+      </c>
+      <c r="I12">
+        <v>-0.04279091759350549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01608406425084709</v>
+        <v>0.005947719890203287</v>
       </c>
       <c r="C13">
-        <v>0.05685396476024322</v>
+        <v>-0.09233817688039216</v>
       </c>
       <c r="D13">
-        <v>0.1284986168396851</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.07755943565588401</v>
+      </c>
+      <c r="E13">
+        <v>0.1221456681461317</v>
+      </c>
+      <c r="F13">
+        <v>-0.05257935537414844</v>
+      </c>
+      <c r="G13">
+        <v>-0.1012245382916966</v>
+      </c>
+      <c r="H13">
+        <v>-0.04817191612260963</v>
+      </c>
+      <c r="I13">
+        <v>-0.09613224788017395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004691348799129363</v>
+        <v>0.006491611137190363</v>
       </c>
       <c r="C14">
-        <v>0.02093585957983601</v>
+        <v>-0.04879124001046864</v>
       </c>
       <c r="D14">
-        <v>0.05836885285678237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01989955427630439</v>
+      </c>
+      <c r="E14">
+        <v>0.1041480197032613</v>
+      </c>
+      <c r="F14">
+        <v>-0.01864324632128466</v>
+      </c>
+      <c r="G14">
+        <v>-0.0341509503758889</v>
+      </c>
+      <c r="H14">
+        <v>-0.07466597024106897</v>
+      </c>
+      <c r="I14">
+        <v>-0.1411443201021207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002254856019732002</v>
+        <v>-0.003824477853418429</v>
       </c>
       <c r="C15">
-        <v>0.02751039197434866</v>
+        <v>-0.04899796441214865</v>
       </c>
       <c r="D15">
-        <v>0.07856409245170609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03152192124825857</v>
+      </c>
+      <c r="E15">
+        <v>0.07776320249440502</v>
+      </c>
+      <c r="F15">
+        <v>-0.01476660504866873</v>
+      </c>
+      <c r="G15">
+        <v>0.009582351980999704</v>
+      </c>
+      <c r="H15">
+        <v>-0.01091071565414836</v>
+      </c>
+      <c r="I15">
+        <v>-0.05592085748016595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.008607761860388611</v>
+        <v>0.01097212256217545</v>
       </c>
       <c r="C16">
-        <v>0.0383878425485641</v>
+        <v>-0.05608579822053263</v>
       </c>
       <c r="D16">
-        <v>0.03955276841116305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.01825106233585764</v>
+      </c>
+      <c r="E16">
+        <v>0.04042580024469534</v>
+      </c>
+      <c r="F16">
+        <v>0.001033753420220446</v>
+      </c>
+      <c r="G16">
+        <v>-0.0009467130832447286</v>
+      </c>
+      <c r="H16">
+        <v>-0.03803277464978166</v>
+      </c>
+      <c r="I16">
+        <v>-0.03617303386384889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01040095405072129</v>
+        <v>0.004239492970338885</v>
       </c>
       <c r="C19">
-        <v>0.01622954703336954</v>
+        <v>-0.01268094592793114</v>
       </c>
       <c r="D19">
-        <v>0.02624632745357316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0003597049569650266</v>
+      </c>
+      <c r="E19">
+        <v>0.01134493366157822</v>
+      </c>
+      <c r="F19">
+        <v>0.008795785759791883</v>
+      </c>
+      <c r="G19">
+        <v>-0.005307891853860651</v>
+      </c>
+      <c r="H19">
+        <v>0.02128834309365988</v>
+      </c>
+      <c r="I19">
+        <v>-0.02672121271809893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002620976655303883</v>
+        <v>0.002730057557912581</v>
       </c>
       <c r="C20">
-        <v>0.04115643681186418</v>
+        <v>-0.06426856608867169</v>
       </c>
       <c r="D20">
-        <v>0.06513175848306516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03495568646154065</v>
+      </c>
+      <c r="E20">
+        <v>0.06733236445487047</v>
+      </c>
+      <c r="F20">
+        <v>-0.007270784394073203</v>
+      </c>
+      <c r="G20">
+        <v>0.01761789028699869</v>
+      </c>
+      <c r="H20">
+        <v>-0.06867588890414159</v>
+      </c>
+      <c r="I20">
+        <v>-0.06279130513026641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01699068300026753</v>
+        <v>0.01025865279390312</v>
       </c>
       <c r="C21">
-        <v>0.06035556965029393</v>
+        <v>-0.06983230529231453</v>
       </c>
       <c r="D21">
-        <v>0.08897397116797591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02557754496665021</v>
+      </c>
+      <c r="E21">
+        <v>0.08338020170681909</v>
+      </c>
+      <c r="F21">
+        <v>-0.06973852822511961</v>
+      </c>
+      <c r="G21">
+        <v>-0.09870790419396597</v>
+      </c>
+      <c r="H21">
+        <v>-0.01781979143332721</v>
+      </c>
+      <c r="I21">
+        <v>-0.1848687599775971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001564278298162234</v>
+        <v>-0.01142620058934558</v>
       </c>
       <c r="C22">
-        <v>0.06169277851780002</v>
+        <v>-0.1018630363326015</v>
       </c>
       <c r="D22">
-        <v>0.2066009917353879</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1447411804647904</v>
+      </c>
+      <c r="E22">
+        <v>0.1878962399949618</v>
+      </c>
+      <c r="F22">
+        <v>-0.2934055099642921</v>
+      </c>
+      <c r="G22">
+        <v>0.1258523468066778</v>
+      </c>
+      <c r="H22">
+        <v>0.248199735323436</v>
+      </c>
+      <c r="I22">
+        <v>0.4137565184941257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.001656639286593386</v>
+        <v>-0.008121699602547319</v>
       </c>
       <c r="C23">
-        <v>0.06305523666429133</v>
+        <v>-0.1048822506730376</v>
       </c>
       <c r="D23">
-        <v>0.2062647365037111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1473303624031602</v>
+      </c>
+      <c r="E23">
+        <v>0.1852823997346218</v>
+      </c>
+      <c r="F23">
+        <v>-0.288274703974959</v>
+      </c>
+      <c r="G23">
+        <v>0.1194836735327393</v>
+      </c>
+      <c r="H23">
+        <v>0.2370256954407483</v>
+      </c>
+      <c r="I23">
+        <v>0.3872933322175729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0113429055398553</v>
+        <v>0.01333878120614624</v>
       </c>
       <c r="C24">
-        <v>0.06326381814004112</v>
+        <v>-0.07398282539200374</v>
       </c>
       <c r="D24">
-        <v>0.05404206415315704</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01021467510858103</v>
+      </c>
+      <c r="E24">
+        <v>0.05434267872316167</v>
+      </c>
+      <c r="F24">
+        <v>0.001049886106808111</v>
+      </c>
+      <c r="G24">
+        <v>0.005815993066383727</v>
+      </c>
+      <c r="H24">
+        <v>-0.02929423298329989</v>
+      </c>
+      <c r="I24">
+        <v>-0.05659353161980184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01577456013780704</v>
+        <v>0.01813068699325318</v>
       </c>
       <c r="C25">
-        <v>0.05386128879320344</v>
+        <v>-0.06706601404117327</v>
       </c>
       <c r="D25">
-        <v>0.04365357504389777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01353713025397026</v>
+      </c>
+      <c r="E25">
+        <v>0.04095492320582066</v>
+      </c>
+      <c r="F25">
+        <v>-0.003127454425970284</v>
+      </c>
+      <c r="G25">
+        <v>0.01020518465709486</v>
+      </c>
+      <c r="H25">
+        <v>-0.03410575087289121</v>
+      </c>
+      <c r="I25">
+        <v>-0.0336800699977066</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.005777363896624784</v>
+        <v>0.01720850438601549</v>
       </c>
       <c r="C26">
-        <v>0.03084594697840877</v>
+        <v>-0.04984866356218797</v>
       </c>
       <c r="D26">
-        <v>0.05287202040126589</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.006893188528708208</v>
+      </c>
+      <c r="E26">
+        <v>0.08290885716109125</v>
+      </c>
+      <c r="F26">
+        <v>-0.03153108926142787</v>
+      </c>
+      <c r="G26">
+        <v>-0.005531229014286124</v>
+      </c>
+      <c r="H26">
+        <v>-0.03717662645790775</v>
+      </c>
+      <c r="I26">
+        <v>-0.1239218338320514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3013559360536293</v>
+        <v>0.3109113841761137</v>
       </c>
       <c r="C28">
-        <v>-0.1379223621996288</v>
+        <v>0.10683117627051</v>
       </c>
       <c r="D28">
-        <v>-0.04910124992711348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01216054465224949</v>
+      </c>
+      <c r="E28">
+        <v>-0.04379257742731655</v>
+      </c>
+      <c r="F28">
+        <v>-0.06974181552388314</v>
+      </c>
+      <c r="G28">
+        <v>0.03556590826392525</v>
+      </c>
+      <c r="H28">
+        <v>0.02666438540522455</v>
+      </c>
+      <c r="I28">
+        <v>-0.06553683583214547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.004259009176640337</v>
+        <v>0.005480678480408812</v>
       </c>
       <c r="C29">
-        <v>0.02848909297008697</v>
+        <v>-0.05744110214871322</v>
       </c>
       <c r="D29">
-        <v>0.0694460986451145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02957387357389557</v>
+      </c>
+      <c r="E29">
+        <v>0.1121203446450493</v>
+      </c>
+      <c r="F29">
+        <v>-0.02340711889985512</v>
+      </c>
+      <c r="G29">
+        <v>-0.05031678227249486</v>
+      </c>
+      <c r="H29">
+        <v>-0.105943380991586</v>
+      </c>
+      <c r="I29">
+        <v>-0.1787675505664906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02615555616169007</v>
+        <v>0.02100623592480726</v>
       </c>
       <c r="C30">
-        <v>0.0968634866660457</v>
+        <v>-0.1210152193671936</v>
       </c>
       <c r="D30">
-        <v>0.1411851856335091</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.04537323584190357</v>
+      </c>
+      <c r="E30">
+        <v>0.1209375589552339</v>
+      </c>
+      <c r="F30">
+        <v>-0.05161115792175786</v>
+      </c>
+      <c r="G30">
+        <v>0.02090582267548651</v>
+      </c>
+      <c r="H30">
+        <v>-0.004416589947791198</v>
+      </c>
+      <c r="I30">
+        <v>-0.02453967957445084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01406703700137117</v>
+        <v>0.01074374771576031</v>
       </c>
       <c r="C31">
-        <v>0.08764965703680619</v>
+        <v>-0.09702256915412598</v>
       </c>
       <c r="D31">
-        <v>0.03044645079009316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004320589384812747</v>
+      </c>
+      <c r="E31">
+        <v>0.02805564431605753</v>
+      </c>
+      <c r="F31">
+        <v>-0.004578543081534631</v>
+      </c>
+      <c r="G31">
+        <v>-0.001662904977244908</v>
+      </c>
+      <c r="H31">
+        <v>0.01970640276518837</v>
+      </c>
+      <c r="I31">
+        <v>-0.05822372048176469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02072127465458439</v>
+        <v>0.01852730948744673</v>
       </c>
       <c r="C32">
-        <v>0.05312108069694717</v>
+        <v>-0.06082100682549507</v>
       </c>
       <c r="D32">
-        <v>0.1014381182248111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0307423120045503</v>
+      </c>
+      <c r="E32">
+        <v>0.06651268038533453</v>
+      </c>
+      <c r="F32">
+        <v>-0.1145805597302842</v>
+      </c>
+      <c r="G32">
+        <v>-0.03892310277769775</v>
+      </c>
+      <c r="H32">
+        <v>-0.01995824839378983</v>
+      </c>
+      <c r="I32">
+        <v>-0.08495515688569776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.00592214348038538</v>
+        <v>0.009516804610190877</v>
       </c>
       <c r="C33">
-        <v>0.06219412537448295</v>
+        <v>-0.09041668617484241</v>
       </c>
       <c r="D33">
-        <v>0.08519675498381163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0393145171892977</v>
+      </c>
+      <c r="E33">
+        <v>0.08636647881953623</v>
+      </c>
+      <c r="F33">
+        <v>-0.0131267719522293</v>
+      </c>
+      <c r="G33">
+        <v>-0.0006796543023903124</v>
+      </c>
+      <c r="H33">
+        <v>-0.0324860353561661</v>
+      </c>
+      <c r="I33">
+        <v>-0.05931799478418452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01027205598467709</v>
+        <v>0.01352303613172635</v>
       </c>
       <c r="C34">
-        <v>0.05194885809856672</v>
+        <v>-0.05638498376830229</v>
       </c>
       <c r="D34">
-        <v>0.05744240506358345</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.01084992346924985</v>
+      </c>
+      <c r="E34">
+        <v>0.04354646762531237</v>
+      </c>
+      <c r="F34">
+        <v>0.02185480691969571</v>
+      </c>
+      <c r="G34">
+        <v>-0.006876003161104006</v>
+      </c>
+      <c r="H34">
+        <v>-0.009935832398359828</v>
+      </c>
+      <c r="I34">
+        <v>-0.0245135176474164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.00135035091699152</v>
+        <v>0.005370038995035673</v>
       </c>
       <c r="C35">
-        <v>0.002476559983894842</v>
+        <v>-0.02462046377989283</v>
       </c>
       <c r="D35">
-        <v>0.009280163827659079</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01238707151623511</v>
+      </c>
+      <c r="E35">
+        <v>0.04074400377520485</v>
+      </c>
+      <c r="F35">
+        <v>-0.01758125961529569</v>
+      </c>
+      <c r="G35">
+        <v>-0.01048288707889075</v>
+      </c>
+      <c r="H35">
+        <v>-0.06067877273130134</v>
+      </c>
+      <c r="I35">
+        <v>-0.09892116991777659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.00555735891069614</v>
+        <v>0.01004104613538706</v>
       </c>
       <c r="C36">
-        <v>0.03003083379564178</v>
+        <v>-0.041841889175276</v>
       </c>
       <c r="D36">
-        <v>0.04387710050667992</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.003651868067483598</v>
+      </c>
+      <c r="E36">
+        <v>0.06595164284894012</v>
+      </c>
+      <c r="F36">
+        <v>-0.0329316054674799</v>
+      </c>
+      <c r="G36">
+        <v>-0.002759778339771622</v>
+      </c>
+      <c r="H36">
+        <v>-0.03351152008019199</v>
+      </c>
+      <c r="I36">
+        <v>-0.07090852989623471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.004395622221238146</v>
+        <v>0.006558738885031095</v>
       </c>
       <c r="C38">
-        <v>0.01455996853069561</v>
+        <v>-0.04192252279472087</v>
       </c>
       <c r="D38">
-        <v>0.06424041825602619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.03113401862190332</v>
+      </c>
+      <c r="E38">
+        <v>0.07789598230321819</v>
+      </c>
+      <c r="F38">
+        <v>-0.01369544517808899</v>
+      </c>
+      <c r="G38">
+        <v>0.04915905285761829</v>
+      </c>
+      <c r="H38">
+        <v>0.002088376135160973</v>
+      </c>
+      <c r="I38">
+        <v>-0.07620575039393036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01432037068474482</v>
+        <v>0.01203090361839738</v>
       </c>
       <c r="C39">
-        <v>0.07607132889280337</v>
+        <v>-0.1050110012421375</v>
       </c>
       <c r="D39">
-        <v>0.1090559220958039</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.02422624381070163</v>
+      </c>
+      <c r="E39">
+        <v>0.09794271790600462</v>
+      </c>
+      <c r="F39">
+        <v>0.00811585983281822</v>
+      </c>
+      <c r="G39">
+        <v>-0.007969636034775305</v>
+      </c>
+      <c r="H39">
+        <v>-0.03691289915252443</v>
+      </c>
+      <c r="I39">
+        <v>-0.05242825923916581</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.005250534808274417</v>
+        <v>0.01080485473360275</v>
       </c>
       <c r="C40">
-        <v>0.01738270780163353</v>
+        <v>-0.04701905162559061</v>
       </c>
       <c r="D40">
-        <v>0.0907008430625245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.05350308195169171</v>
+      </c>
+      <c r="E40">
+        <v>0.1211234673351489</v>
+      </c>
+      <c r="F40">
+        <v>0.004518658541293601</v>
+      </c>
+      <c r="G40">
+        <v>-0.02408375533559821</v>
+      </c>
+      <c r="H40">
+        <v>-0.04103951137475539</v>
+      </c>
+      <c r="I40">
+        <v>-0.01064462939335277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009108730752334648</v>
+        <v>0.01783264282268538</v>
       </c>
       <c r="C41">
-        <v>0.02394819565878564</v>
+        <v>-0.04359086887277212</v>
       </c>
       <c r="D41">
-        <v>0.01863268189057326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01168207348522948</v>
+      </c>
+      <c r="E41">
+        <v>0.02104617144879216</v>
+      </c>
+      <c r="F41">
+        <v>0.01445855665983758</v>
+      </c>
+      <c r="G41">
+        <v>0.006922400308674063</v>
+      </c>
+      <c r="H41">
+        <v>-0.005218545595563109</v>
+      </c>
+      <c r="I41">
+        <v>-0.0409018007174984</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.004036549708646021</v>
+        <v>0.008361237360354466</v>
       </c>
       <c r="C43">
-        <v>0.01808112765837841</v>
+        <v>-0.03512242851325053</v>
       </c>
       <c r="D43">
-        <v>0.03706442499883619</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01140764164188214</v>
+      </c>
+      <c r="E43">
+        <v>0.04462282444784116</v>
+      </c>
+      <c r="F43">
+        <v>0.003665287644087607</v>
+      </c>
+      <c r="G43">
+        <v>0.01517433756192366</v>
+      </c>
+      <c r="H43">
+        <v>-0.02114759670798319</v>
+      </c>
+      <c r="I43">
+        <v>-0.05376874999658305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01893473116987706</v>
+        <v>0.008285817031374187</v>
       </c>
       <c r="C44">
-        <v>0.05171328228888261</v>
+        <v>-0.07394944945436782</v>
       </c>
       <c r="D44">
-        <v>0.08620454705834399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.02453256393960555</v>
+      </c>
+      <c r="E44">
+        <v>0.1038283329776</v>
+      </c>
+      <c r="F44">
+        <v>-0.04370828604332969</v>
+      </c>
+      <c r="G44">
+        <v>0.01248372370208067</v>
+      </c>
+      <c r="H44">
+        <v>-0.001349412979768889</v>
+      </c>
+      <c r="I44">
+        <v>-0.03382226222350124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.001387654382823522</v>
+        <v>-0.0002766458260843534</v>
       </c>
       <c r="C46">
-        <v>0.03659975098424827</v>
+        <v>-0.05282128972464603</v>
       </c>
       <c r="D46">
-        <v>0.06770469843892957</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01352794047544231</v>
+      </c>
+      <c r="E46">
+        <v>0.0847659985345306</v>
+      </c>
+      <c r="F46">
+        <v>-0.0153856340410623</v>
+      </c>
+      <c r="G46">
+        <v>-0.006217458728671967</v>
+      </c>
+      <c r="H46">
+        <v>-0.06396515227739055</v>
+      </c>
+      <c r="I46">
+        <v>-0.1114899286989824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.04307274665828773</v>
+        <v>0.02900552512952605</v>
       </c>
       <c r="C47">
-        <v>0.1142145378424284</v>
+        <v>-0.1126208731027218</v>
       </c>
       <c r="D47">
-        <v>0.0356230332224715</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01079557476106192</v>
+      </c>
+      <c r="E47">
+        <v>0.01407332873292957</v>
+      </c>
+      <c r="F47">
+        <v>0.0005314374226519768</v>
+      </c>
+      <c r="G47">
+        <v>0.0103158231777154</v>
+      </c>
+      <c r="H47">
+        <v>-0.0003013056572886119</v>
+      </c>
+      <c r="I47">
+        <v>-0.08648599672401966</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.00798512282835807</v>
+        <v>0.01451949929782088</v>
       </c>
       <c r="C48">
-        <v>0.03256722189183128</v>
+        <v>-0.0475488856098485</v>
       </c>
       <c r="D48">
-        <v>0.04354320275438228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.004597822335726318</v>
+      </c>
+      <c r="E48">
+        <v>0.07494952276698183</v>
+      </c>
+      <c r="F48">
+        <v>-0.04347771539092434</v>
+      </c>
+      <c r="G48">
+        <v>0.002649177805358356</v>
+      </c>
+      <c r="H48">
+        <v>-0.04645561406134627</v>
+      </c>
+      <c r="I48">
+        <v>-0.1177229626230132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.003182667363684986</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006521333367468964</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007378760005391268</v>
+      </c>
+      <c r="E49">
+        <v>0.005894835052044805</v>
+      </c>
+      <c r="F49">
+        <v>0.01361226903354941</v>
+      </c>
+      <c r="G49">
+        <v>-0.008022958699089115</v>
+      </c>
+      <c r="H49">
+        <v>-0.01502521746105739</v>
+      </c>
+      <c r="I49">
+        <v>0.006454274998013909</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.01305017202903382</v>
+        <v>0.01194929189974928</v>
       </c>
       <c r="C50">
-        <v>0.05461833351614512</v>
+        <v>-0.0720737727278422</v>
       </c>
       <c r="D50">
-        <v>0.0436222649881623</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01518721094359666</v>
+      </c>
+      <c r="E50">
+        <v>0.03442238051274015</v>
+      </c>
+      <c r="F50">
+        <v>-0.01388503809712078</v>
+      </c>
+      <c r="G50">
+        <v>0.009673025441598031</v>
+      </c>
+      <c r="H50">
+        <v>0.003330287021922521</v>
+      </c>
+      <c r="I50">
+        <v>-0.05853412675642267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004288308558660155</v>
+        <v>-0.004805433137207716</v>
       </c>
       <c r="C51">
-        <v>0.01869958758224201</v>
+        <v>-0.0296167975992379</v>
       </c>
       <c r="D51">
-        <v>0.06609061603731176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0136063186958208</v>
+      </c>
+      <c r="E51">
+        <v>0.05817231830414456</v>
+      </c>
+      <c r="F51">
+        <v>-0.04709288935697971</v>
+      </c>
+      <c r="G51">
+        <v>-0.01358343645510183</v>
+      </c>
+      <c r="H51">
+        <v>-0.01340831701593886</v>
+      </c>
+      <c r="I51">
+        <v>-0.1043198604353041</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.08687430846757078</v>
+        <v>0.06415636601489885</v>
       </c>
       <c r="C53">
-        <v>0.1549444649838011</v>
+        <v>-0.1618154343019969</v>
       </c>
       <c r="D53">
-        <v>0.000670231535125066</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04204323420483549</v>
+      </c>
+      <c r="E53">
+        <v>-0.04574141196466398</v>
+      </c>
+      <c r="F53">
+        <v>0.02611525067542316</v>
+      </c>
+      <c r="G53">
+        <v>0.01359479113173637</v>
+      </c>
+      <c r="H53">
+        <v>0.0399338995667493</v>
+      </c>
+      <c r="I53">
+        <v>-0.02232799089313614</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.007070328284218357</v>
+        <v>0.01333456565136452</v>
       </c>
       <c r="C54">
-        <v>0.02782982678334638</v>
+        <v>-0.05060018357189849</v>
       </c>
       <c r="D54">
-        <v>0.0761992537789577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.04166225362074823</v>
+      </c>
+      <c r="E54">
+        <v>0.05777098409820706</v>
+      </c>
+      <c r="F54">
+        <v>-0.01214293435027293</v>
+      </c>
+      <c r="G54">
+        <v>0.006673331314024389</v>
+      </c>
+      <c r="H54">
+        <v>-0.01599647834511607</v>
+      </c>
+      <c r="I54">
+        <v>-0.09214345725957652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.06016987824633829</v>
+        <v>0.03982153588496171</v>
       </c>
       <c r="C55">
-        <v>0.1128497463542141</v>
+        <v>-0.1149574827739712</v>
       </c>
       <c r="D55">
-        <v>-0.002367588987037569</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04932479074454642</v>
+      </c>
+      <c r="E55">
+        <v>-0.0229409938931822</v>
+      </c>
+      <c r="F55">
+        <v>0.03279902900459995</v>
+      </c>
+      <c r="G55">
+        <v>0.001377633271150036</v>
+      </c>
+      <c r="H55">
+        <v>0.04219832674413222</v>
+      </c>
+      <c r="I55">
+        <v>-0.02681084478686384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.09422133777001591</v>
+        <v>0.06163426730482911</v>
       </c>
       <c r="C56">
-        <v>0.16909684831956</v>
+        <v>-0.1832747745248957</v>
       </c>
       <c r="D56">
-        <v>0.02526764828578053</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05139359150132843</v>
+      </c>
+      <c r="E56">
+        <v>-0.03691517343798853</v>
+      </c>
+      <c r="F56">
+        <v>0.06527202878471609</v>
+      </c>
+      <c r="G56">
+        <v>0.01238269408787727</v>
+      </c>
+      <c r="H56">
+        <v>0.1209989464936461</v>
+      </c>
+      <c r="I56">
+        <v>-0.02651963149898184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.0185249747399254</v>
+        <v>0.01079614188914867</v>
       </c>
       <c r="C58">
-        <v>0.07586763827958376</v>
+        <v>-0.1191881991987736</v>
       </c>
       <c r="D58">
-        <v>0.2277946804096524</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.1267950453088597</v>
+      </c>
+      <c r="E58">
+        <v>0.1728155445537481</v>
+      </c>
+      <c r="F58">
+        <v>-0.2618310573010746</v>
+      </c>
+      <c r="G58">
+        <v>0.06478819670554412</v>
+      </c>
+      <c r="H58">
+        <v>0.1222907709825918</v>
+      </c>
+      <c r="I58">
+        <v>0.04243808182541979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.2390979712802836</v>
+        <v>0.2684747196566273</v>
       </c>
       <c r="C59">
-        <v>-0.0845049900701155</v>
+        <v>0.05622998259840423</v>
       </c>
       <c r="D59">
-        <v>0.04730770092911601</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02038072409989256</v>
+      </c>
+      <c r="E59">
+        <v>0.02786256287017466</v>
+      </c>
+      <c r="F59">
+        <v>-0.03416810837169972</v>
+      </c>
+      <c r="G59">
+        <v>-0.01970496256218437</v>
+      </c>
+      <c r="H59">
+        <v>-0.001771109216337493</v>
+      </c>
+      <c r="I59">
+        <v>0.031516492221528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1495570515240874</v>
+        <v>0.1535792037863472</v>
       </c>
       <c r="C60">
-        <v>0.1199185120613757</v>
+        <v>-0.1523827188481634</v>
       </c>
       <c r="D60">
-        <v>0.08374082702591389</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02262636314022814</v>
+      </c>
+      <c r="E60">
+        <v>0.08291617805674292</v>
+      </c>
+      <c r="F60">
+        <v>0.2270152696440766</v>
+      </c>
+      <c r="G60">
+        <v>-0.1044947380590929</v>
+      </c>
+      <c r="H60">
+        <v>-0.1595609131029261</v>
+      </c>
+      <c r="I60">
+        <v>0.2922791679417185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.01989718922215175</v>
+        <v>0.01844472953676352</v>
       </c>
       <c r="C61">
-        <v>0.06368140353667696</v>
+        <v>-0.09051480329182647</v>
       </c>
       <c r="D61">
-        <v>0.07379918912664397</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.015033761805619</v>
+      </c>
+      <c r="E61">
+        <v>0.0765054058635489</v>
+      </c>
+      <c r="F61">
+        <v>0.02131033307249781</v>
+      </c>
+      <c r="G61">
+        <v>0.004752669214021029</v>
+      </c>
+      <c r="H61">
+        <v>-0.02983880005616908</v>
+      </c>
+      <c r="I61">
+        <v>-0.06358935530039392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0003241825814360905</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001004117838691266</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0006527580216781306</v>
+      </c>
+      <c r="E62">
+        <v>-0.0007366370674938193</v>
+      </c>
+      <c r="F62">
+        <v>-0.002937748531293733</v>
+      </c>
+      <c r="G62">
+        <v>0.0001184884309041722</v>
+      </c>
+      <c r="H62">
+        <v>2.706665624662843e-06</v>
+      </c>
+      <c r="I62">
+        <v>-0.004225862256550261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.00183338791525381</v>
+        <v>0.01778239290912818</v>
       </c>
       <c r="C63">
-        <v>0.04597243641417769</v>
+        <v>-0.06272175365771544</v>
       </c>
       <c r="D63">
-        <v>0.06165226757073582</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.004416497881387711</v>
+      </c>
+      <c r="E63">
+        <v>0.07591375399052971</v>
+      </c>
+      <c r="F63">
+        <v>-0.003316956739437489</v>
+      </c>
+      <c r="G63">
+        <v>-0.003340525809530014</v>
+      </c>
+      <c r="H63">
+        <v>-0.03409591474480331</v>
+      </c>
+      <c r="I63">
+        <v>-0.07776637285343047</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.02854309241395993</v>
+        <v>0.017125492673869</v>
       </c>
       <c r="C64">
-        <v>0.1097086334741189</v>
+        <v>-0.1069141205104076</v>
       </c>
       <c r="D64">
-        <v>0.02283901409507762</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01002571227060668</v>
+      </c>
+      <c r="E64">
+        <v>0.02702026417829428</v>
+      </c>
+      <c r="F64">
+        <v>-0.0172839937456377</v>
+      </c>
+      <c r="G64">
+        <v>0.01561680846409486</v>
+      </c>
+      <c r="H64">
+        <v>-0.06142827817491017</v>
+      </c>
+      <c r="I64">
+        <v>0.01716967638980786</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.01888833000813459</v>
+        <v>0.02362228628839986</v>
       </c>
       <c r="C65">
-        <v>0.03940396455380157</v>
+        <v>-0.06632941107785564</v>
       </c>
       <c r="D65">
-        <v>0.08821913620925308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05379036233356076</v>
+      </c>
+      <c r="E65">
+        <v>0.09839586483615223</v>
+      </c>
+      <c r="F65">
+        <v>0.003312297424474884</v>
+      </c>
+      <c r="G65">
+        <v>0.002131542607190391</v>
+      </c>
+      <c r="H65">
+        <v>-0.08488044332925544</v>
+      </c>
+      <c r="I65">
+        <v>0.02763497320154016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.01998489180493128</v>
+        <v>0.01390110577718322</v>
       </c>
       <c r="C66">
-        <v>0.09533687067185462</v>
+        <v>-0.1308708877716782</v>
       </c>
       <c r="D66">
-        <v>0.1445947625582498</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.05598576691467068</v>
+      </c>
+      <c r="E66">
+        <v>0.1087277556449388</v>
+      </c>
+      <c r="F66">
+        <v>-0.003856930688218432</v>
+      </c>
+      <c r="G66">
+        <v>0.002855303591692676</v>
+      </c>
+      <c r="H66">
+        <v>-0.0116347276110658</v>
+      </c>
+      <c r="I66">
+        <v>-0.05286857153115857</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01700102680629128</v>
+        <v>0.01762244948511296</v>
       </c>
       <c r="C67">
-        <v>0.01667442802884587</v>
+        <v>-0.04062692483954032</v>
       </c>
       <c r="D67">
-        <v>0.03107065002834638</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007937648226313579</v>
+      </c>
+      <c r="E67">
+        <v>0.06146887225126126</v>
+      </c>
+      <c r="F67">
+        <v>0.02738951786387703</v>
+      </c>
+      <c r="G67">
+        <v>0.04168443491653941</v>
+      </c>
+      <c r="H67">
+        <v>-0.01128961254149944</v>
+      </c>
+      <c r="I67">
+        <v>-0.05745935789072412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2349793469371817</v>
+        <v>0.2779713017350737</v>
       </c>
       <c r="C68">
-        <v>-0.09703684882622847</v>
+        <v>0.06823005487296224</v>
       </c>
       <c r="D68">
-        <v>0.01710413652013956</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03872424814827601</v>
+      </c>
+      <c r="E68">
+        <v>0.0162573341088004</v>
+      </c>
+      <c r="F68">
+        <v>-0.05566017373926266</v>
+      </c>
+      <c r="G68">
+        <v>0.01258218790544749</v>
+      </c>
+      <c r="H68">
+        <v>0.034566006519652</v>
+      </c>
+      <c r="I68">
+        <v>0.02920685346859793</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.0383028417076825</v>
+        <v>0.01683867318102878</v>
       </c>
       <c r="C69">
-        <v>0.1197098361142604</v>
+        <v>-0.102822960689436</v>
       </c>
       <c r="D69">
-        <v>0.04711724220270827</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02436745650775578</v>
+      </c>
+      <c r="E69">
+        <v>0.02321360322074025</v>
+      </c>
+      <c r="F69">
+        <v>0.01777546702933691</v>
+      </c>
+      <c r="G69">
+        <v>0.007677188247346565</v>
+      </c>
+      <c r="H69">
+        <v>0.01014360721590746</v>
+      </c>
+      <c r="I69">
+        <v>-0.05036183066261831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2501796521660508</v>
+        <v>0.2668029919114489</v>
       </c>
       <c r="C71">
-        <v>-0.11732741472711</v>
+        <v>0.0838517476985262</v>
       </c>
       <c r="D71">
-        <v>0.01727010234218756</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01778540451807901</v>
+      </c>
+      <c r="E71">
+        <v>0.0199400467932115</v>
+      </c>
+      <c r="F71">
+        <v>-0.02905823235618273</v>
+      </c>
+      <c r="G71">
+        <v>0.0285232776259041</v>
+      </c>
+      <c r="H71">
+        <v>0.003496843904788123</v>
+      </c>
+      <c r="I71">
+        <v>-0.06452253132232377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.08028444959635359</v>
+        <v>0.06414703569835428</v>
       </c>
       <c r="C72">
-        <v>0.118855899257785</v>
+        <v>-0.1352589593594821</v>
       </c>
       <c r="D72">
-        <v>0.1001156015691263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01311393395455428</v>
+      </c>
+      <c r="E72">
+        <v>0.05974610605814113</v>
+      </c>
+      <c r="F72">
+        <v>0.04183472387137197</v>
+      </c>
+      <c r="G72">
+        <v>-0.008609056685440578</v>
+      </c>
+      <c r="H72">
+        <v>-0.01593250660672125</v>
+      </c>
+      <c r="I72">
+        <v>0.03423379610577596</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1149483853016294</v>
+        <v>0.1450945185454235</v>
       </c>
       <c r="C73">
-        <v>0.09183568725881887</v>
+        <v>-0.1549026113272426</v>
       </c>
       <c r="D73">
-        <v>0.1137409288408384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.03842837226628966</v>
+      </c>
+      <c r="E73">
+        <v>0.1645601222651861</v>
+      </c>
+      <c r="F73">
+        <v>0.3225997239203059</v>
+      </c>
+      <c r="G73">
+        <v>-0.1167330323694681</v>
+      </c>
+      <c r="H73">
+        <v>-0.3011955836483922</v>
+      </c>
+      <c r="I73">
+        <v>0.284631148057254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.07382860584027934</v>
+        <v>0.05087058204092577</v>
       </c>
       <c r="C74">
-        <v>0.1367766215773454</v>
+        <v>-0.1357431196625599</v>
       </c>
       <c r="D74">
-        <v>-0.04624177082258944</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.06410003918799488</v>
+      </c>
+      <c r="E74">
+        <v>-0.04399030506119421</v>
+      </c>
+      <c r="F74">
+        <v>0.01909797887701167</v>
+      </c>
+      <c r="G74">
+        <v>0.01480668654291151</v>
+      </c>
+      <c r="H74">
+        <v>0.03189869822315916</v>
+      </c>
+      <c r="I74">
+        <v>-0.01904408404550592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1725433893638337</v>
+        <v>0.09904264006994426</v>
       </c>
       <c r="C75">
-        <v>0.225384474531294</v>
+        <v>-0.233191490476894</v>
       </c>
       <c r="D75">
-        <v>-0.02140512422210051</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1006730184076067</v>
+      </c>
+      <c r="E75">
+        <v>-0.1093872560279997</v>
+      </c>
+      <c r="F75">
+        <v>0.1541184749159014</v>
+      </c>
+      <c r="G75">
+        <v>0.1162068659457223</v>
+      </c>
+      <c r="H75">
+        <v>0.2258433243446901</v>
+      </c>
+      <c r="I75">
+        <v>-0.04611583964648008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.09339131834311845</v>
+        <v>0.0580896086086049</v>
       </c>
       <c r="C76">
-        <v>0.1645741902650368</v>
+        <v>-0.1728126477052427</v>
       </c>
       <c r="D76">
-        <v>0.01312141903626015</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06394230752599325</v>
+      </c>
+      <c r="E76">
+        <v>-0.02793757809569416</v>
+      </c>
+      <c r="F76">
+        <v>0.09598632116370477</v>
+      </c>
+      <c r="G76">
+        <v>0.008574377967250213</v>
+      </c>
+      <c r="H76">
+        <v>0.08209051524937938</v>
+      </c>
+      <c r="I76">
+        <v>-0.05089153011311251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.0396110002121841</v>
+        <v>0.02800098548051374</v>
       </c>
       <c r="C77">
-        <v>0.08645185074605846</v>
+        <v>-0.1575202275004654</v>
       </c>
       <c r="D77">
-        <v>0.3064411435946841</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.8407137904643184</v>
+      </c>
+      <c r="E77">
+        <v>-0.4887334015513565</v>
+      </c>
+      <c r="F77">
+        <v>0.07101850477587786</v>
+      </c>
+      <c r="G77">
+        <v>0.02620358790342112</v>
+      </c>
+      <c r="H77">
+        <v>-0.05891009820883942</v>
+      </c>
+      <c r="I77">
+        <v>-0.06266474877130501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03264492979132265</v>
+        <v>0.02828884307611378</v>
       </c>
       <c r="C78">
-        <v>0.09204096811766517</v>
+        <v>-0.1059398926556302</v>
       </c>
       <c r="D78">
-        <v>0.1305008511518928</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.002611193448157539</v>
+      </c>
+      <c r="E78">
+        <v>0.1018705221974933</v>
+      </c>
+      <c r="F78">
+        <v>-0.0482215510656504</v>
+      </c>
+      <c r="G78">
+        <v>-0.02486716323580213</v>
+      </c>
+      <c r="H78">
+        <v>0.07386745062038447</v>
+      </c>
+      <c r="I78">
+        <v>-0.1251575207136354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09348993522421374</v>
+        <v>0.05840879655815376</v>
       </c>
       <c r="C79">
-        <v>0.4158842166497046</v>
+        <v>-0.3019317951020474</v>
       </c>
       <c r="D79">
-        <v>-0.6126530191227133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.2948780691758854</v>
+      </c>
+      <c r="E79">
+        <v>-0.4534831972994248</v>
+      </c>
+      <c r="F79">
+        <v>-0.5476324532602782</v>
+      </c>
+      <c r="G79">
+        <v>-0.05336448804634864</v>
+      </c>
+      <c r="H79">
+        <v>-0.466445533010389</v>
+      </c>
+      <c r="I79">
+        <v>0.1460567689407497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.0005821782782720942</v>
+        <v>0.009315696818626314</v>
       </c>
       <c r="C80">
-        <v>0.05613894691269959</v>
+        <v>-0.05559973927171633</v>
       </c>
       <c r="D80">
-        <v>0.03938914324952018</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.004958007187260527</v>
+      </c>
+      <c r="E80">
+        <v>0.06683969109126364</v>
+      </c>
+      <c r="F80">
+        <v>0.02155371859262508</v>
+      </c>
+      <c r="G80">
+        <v>-0.06578631020469566</v>
+      </c>
+      <c r="H80">
+        <v>-0.01707588637614306</v>
+      </c>
+      <c r="I80">
+        <v>0.03174035442639592</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.07845926729689444</v>
+        <v>0.03686499832835794</v>
       </c>
       <c r="C81">
-        <v>0.1510542735195968</v>
+        <v>-0.1501343132057629</v>
       </c>
       <c r="D81">
-        <v>-0.05231946020200259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07110779242761243</v>
+      </c>
+      <c r="E81">
+        <v>-0.05806559672030823</v>
+      </c>
+      <c r="F81">
+        <v>0.01521143270886261</v>
+      </c>
+      <c r="G81">
+        <v>0.0197810439918918</v>
+      </c>
+      <c r="H81">
+        <v>0.07003462612733231</v>
+      </c>
+      <c r="I81">
+        <v>-0.06443800386148589</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.139989922899576</v>
+        <v>0.07860022863567352</v>
       </c>
       <c r="C82">
-        <v>0.2175117280827733</v>
+        <v>-0.1999579311517105</v>
       </c>
       <c r="D82">
-        <v>-0.022920322140677</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09980173063125658</v>
+      </c>
+      <c r="E82">
+        <v>-0.06862032821067653</v>
+      </c>
+      <c r="F82">
+        <v>0.09022172805720766</v>
+      </c>
+      <c r="G82">
+        <v>0.007008783616004325</v>
+      </c>
+      <c r="H82">
+        <v>0.1239277165384135</v>
+      </c>
+      <c r="I82">
+        <v>-0.08350584177802228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.004415088455133998</v>
+        <v>0.004093280523075496</v>
       </c>
       <c r="C83">
-        <v>0.05871205468938362</v>
+        <v>-0.02202140566063625</v>
       </c>
       <c r="D83">
-        <v>0.05244347983536724</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04062881229511985</v>
+      </c>
+      <c r="E83">
+        <v>-0.03707517423090722</v>
+      </c>
+      <c r="F83">
+        <v>-0.09808980830299183</v>
+      </c>
+      <c r="G83">
+        <v>-0.9134326566528079</v>
+      </c>
+      <c r="H83">
+        <v>0.2646029627003921</v>
+      </c>
+      <c r="I83">
+        <v>0.02999688658259058</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.001493909980415078</v>
+        <v>-0.002691598105410904</v>
       </c>
       <c r="C84">
-        <v>0.01417684480422878</v>
+        <v>-0.02882331890767055</v>
       </c>
       <c r="D84">
-        <v>0.04068401227286433</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01194532071730762</v>
+      </c>
+      <c r="E84">
+        <v>0.05469774222809389</v>
+      </c>
+      <c r="F84">
+        <v>-0.0617508709903585</v>
+      </c>
+      <c r="G84">
+        <v>0.05502729401588985</v>
+      </c>
+      <c r="H84">
+        <v>0.03156398407063093</v>
+      </c>
+      <c r="I84">
+        <v>-0.07209948260192679</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.08832374434946173</v>
+        <v>0.05127232860463842</v>
       </c>
       <c r="C85">
-        <v>0.1857374479993247</v>
+        <v>-0.1752233304326316</v>
       </c>
       <c r="D85">
-        <v>-0.07693321920092423</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1182779154905535</v>
+      </c>
+      <c r="E85">
+        <v>-0.09181357794131338</v>
+      </c>
+      <c r="F85">
+        <v>0.03141653212076648</v>
+      </c>
+      <c r="G85">
+        <v>0.01579206144624972</v>
+      </c>
+      <c r="H85">
+        <v>0.07788033280491349</v>
+      </c>
+      <c r="I85">
+        <v>-0.02734357461580034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02570324367658957</v>
+        <v>0.01651236514621975</v>
       </c>
       <c r="C86">
-        <v>0.03023575563700175</v>
+        <v>-0.06017885231548353</v>
       </c>
       <c r="D86">
-        <v>0.09348713668550185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04825600845309656</v>
+      </c>
+      <c r="E86">
+        <v>0.04003561737242312</v>
+      </c>
+      <c r="F86">
+        <v>-0.07821281167426987</v>
+      </c>
+      <c r="G86">
+        <v>0.03764037655602629</v>
+      </c>
+      <c r="H86">
+        <v>0.02420610794250337</v>
+      </c>
+      <c r="I86">
+        <v>-0.06984069984072888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02557494652103401</v>
+        <v>0.01609532085340524</v>
       </c>
       <c r="C87">
-        <v>0.0709693304302073</v>
+        <v>-0.09413612931731667</v>
       </c>
       <c r="D87">
-        <v>0.1427936237014601</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07170443545925628</v>
+      </c>
+      <c r="E87">
+        <v>0.09837739343934518</v>
+      </c>
+      <c r="F87">
+        <v>-0.07393131762626613</v>
+      </c>
+      <c r="G87">
+        <v>0.01605454330781631</v>
+      </c>
+      <c r="H87">
+        <v>0.04354434193210718</v>
+      </c>
+      <c r="I87">
+        <v>-0.04200431771293703</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.04018323028126256</v>
+        <v>0.03862685198236153</v>
       </c>
       <c r="C88">
-        <v>0.07440730590929261</v>
+        <v>-0.08338860592160197</v>
       </c>
       <c r="D88">
-        <v>-0.001323996140815554</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0102017573748754</v>
+      </c>
+      <c r="E88">
+        <v>0.01635578372911862</v>
+      </c>
+      <c r="F88">
+        <v>0.02651874269822052</v>
+      </c>
+      <c r="G88">
+        <v>0.004723664377263157</v>
+      </c>
+      <c r="H88">
+        <v>-0.01380753954863318</v>
+      </c>
+      <c r="I88">
+        <v>-0.01810389264479385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.4098211876383431</v>
+        <v>0.4045298835075855</v>
       </c>
       <c r="C89">
-        <v>-0.2144133241048149</v>
+        <v>0.1513401113331181</v>
       </c>
       <c r="D89">
-        <v>-0.02198646326434229</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02085979072513972</v>
+      </c>
+      <c r="E89">
+        <v>0.01213561424506534</v>
+      </c>
+      <c r="F89">
+        <v>-0.09483228153043255</v>
+      </c>
+      <c r="G89">
+        <v>-0.07765305310489717</v>
+      </c>
+      <c r="H89">
+        <v>0.06981250252124666</v>
+      </c>
+      <c r="I89">
+        <v>-0.06760694965793598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.3001455586647245</v>
+        <v>0.3181928542033301</v>
       </c>
       <c r="C90">
-        <v>-0.152656735997743</v>
+        <v>0.1010437689432196</v>
       </c>
       <c r="D90">
-        <v>0.06445047707885621</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03384497576907923</v>
+      </c>
+      <c r="E90">
+        <v>0.04417002526433769</v>
+      </c>
+      <c r="F90">
+        <v>-0.01996457435825453</v>
+      </c>
+      <c r="G90">
+        <v>0.01281449535325524</v>
+      </c>
+      <c r="H90">
+        <v>0.02918017234914432</v>
+      </c>
+      <c r="I90">
+        <v>0.006836746119006672</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1041921008843781</v>
+        <v>0.06839731249142843</v>
       </c>
       <c r="C91">
-        <v>0.2106136169872633</v>
+        <v>-0.1825093385117849</v>
       </c>
       <c r="D91">
-        <v>-0.08186376150050957</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08287876588247287</v>
+      </c>
+      <c r="E91">
+        <v>-0.1157154456876655</v>
+      </c>
+      <c r="F91">
+        <v>0.009605858169224055</v>
+      </c>
+      <c r="G91">
+        <v>-0.02552036886299286</v>
+      </c>
+      <c r="H91">
+        <v>0.05108218263559165</v>
+      </c>
+      <c r="I91">
+        <v>-0.01263665977607238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3187526907418643</v>
+        <v>0.342903098539021</v>
       </c>
       <c r="C92">
-        <v>-0.1702524109390595</v>
+        <v>0.132338011064311</v>
       </c>
       <c r="D92">
-        <v>-0.02424174924686373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02975111749465977</v>
+      </c>
+      <c r="E92">
+        <v>-0.01948271399485349</v>
+      </c>
+      <c r="F92">
+        <v>-0.07771123074565293</v>
+      </c>
+      <c r="G92">
+        <v>0.09305045695316118</v>
+      </c>
+      <c r="H92">
+        <v>-0.03385663757697464</v>
+      </c>
+      <c r="I92">
+        <v>-0.01890993566559415</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3134262383381435</v>
+        <v>0.3218941907463345</v>
       </c>
       <c r="C93">
-        <v>-0.1583760024136291</v>
+        <v>0.1222206406292654</v>
       </c>
       <c r="D93">
-        <v>-0.04768349091173578</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02267631135954913</v>
+      </c>
+      <c r="E93">
+        <v>-0.01902070718938928</v>
+      </c>
+      <c r="F93">
+        <v>-0.03859623428176714</v>
+      </c>
+      <c r="G93">
+        <v>0.01300393921509719</v>
+      </c>
+      <c r="H93">
+        <v>-0.00158660333755673</v>
+      </c>
+      <c r="I93">
+        <v>-0.0361201909705498</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1783087269140185</v>
+        <v>0.1163480104517894</v>
       </c>
       <c r="C94">
-        <v>0.2566197974582592</v>
+        <v>-0.2544144820375977</v>
       </c>
       <c r="D94">
-        <v>-0.07526970161725668</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.1563176331670278</v>
+      </c>
+      <c r="E94">
+        <v>-0.2044429893358425</v>
+      </c>
+      <c r="F94">
+        <v>0.1923818358633085</v>
+      </c>
+      <c r="G94">
+        <v>0.08700913617678933</v>
+      </c>
+      <c r="H94">
+        <v>0.4227038751180661</v>
+      </c>
+      <c r="I94">
+        <v>0.0418661052180681</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.04048098455131471</v>
+        <v>0.03866879715317222</v>
       </c>
       <c r="C95">
-        <v>0.0413562056299194</v>
+        <v>-0.09127227665232938</v>
       </c>
       <c r="D95">
-        <v>0.05943848142249461</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.04539975215972242</v>
+      </c>
+      <c r="E95">
+        <v>0.07533592169757145</v>
+      </c>
+      <c r="F95">
+        <v>0.1056232577141338</v>
+      </c>
+      <c r="G95">
+        <v>0.03532435281942928</v>
+      </c>
+      <c r="H95">
+        <v>-0.04630141140355492</v>
+      </c>
+      <c r="I95">
+        <v>-0.08367771218405051</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.003450080614696877</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001128325449106521</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01755815619214712</v>
+      </c>
+      <c r="E97">
+        <v>-0.001222854458103819</v>
+      </c>
+      <c r="F97">
+        <v>0.002195319259916161</v>
+      </c>
+      <c r="G97">
+        <v>0.01891340951315052</v>
+      </c>
+      <c r="H97">
+        <v>-0.005197361616848354</v>
+      </c>
+      <c r="I97">
+        <v>-0.008710959602282943</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1056370622173127</v>
+        <v>0.1303824463899716</v>
       </c>
       <c r="C98">
-        <v>0.09306409040429267</v>
+        <v>-0.1405123209782104</v>
       </c>
       <c r="D98">
-        <v>0.1142120151826468</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01448854094552021</v>
+      </c>
+      <c r="E98">
+        <v>0.139947102203474</v>
+      </c>
+      <c r="F98">
+        <v>0.2489215998548167</v>
+      </c>
+      <c r="G98">
+        <v>-0.07845530355196233</v>
+      </c>
+      <c r="H98">
+        <v>-0.2543548845892724</v>
+      </c>
+      <c r="I98">
+        <v>0.3284821781532212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.005335365301304795</v>
+        <v>0.005607332702351329</v>
       </c>
       <c r="C101">
-        <v>0.02762927695085201</v>
+        <v>-0.05619431577293561</v>
       </c>
       <c r="D101">
-        <v>0.0690940232362935</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02984885049576579</v>
+      </c>
+      <c r="E101">
+        <v>0.1108341888016641</v>
+      </c>
+      <c r="F101">
+        <v>-0.02349137333441673</v>
+      </c>
+      <c r="G101">
+        <v>-0.04985745396809569</v>
+      </c>
+      <c r="H101">
+        <v>-0.1047780211888642</v>
+      </c>
+      <c r="I101">
+        <v>-0.1777338762709863</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.06525514342080534</v>
+        <v>0.02524943968775234</v>
       </c>
       <c r="C102">
-        <v>0.1181032651557675</v>
+        <v>-0.08410649944163567</v>
       </c>
       <c r="D102">
-        <v>0.002736143941317561</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04264360080564059</v>
+      </c>
+      <c r="E102">
+        <v>-0.04785138953730392</v>
+      </c>
+      <c r="F102">
+        <v>0.03573349903314791</v>
+      </c>
+      <c r="G102">
+        <v>-0.01083830599926068</v>
+      </c>
+      <c r="H102">
+        <v>0.06979895697522384</v>
+      </c>
+      <c r="I102">
+        <v>-0.01556737027119427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
